--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannichorst/Documents/PythonProjects/Azure---Extract-Tables-via-OCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerjch\OneDrive - SAS\GitLab\_Custom Steps\Azure---Extract-Tables-via-OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9590AD-04A5-8C41-9524-8E7F9B49D6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8551D7DC-9C97-4A4D-991F-FC0DD6BE6F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="-25020" windowWidth="48180" windowHeight="17440" xr2:uid="{725BDA1C-22D2-1342-88A3-13C6FCB2F6D2}"/>
+    <workbookView xWindow="28800" yWindow="-11775" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{725BDA1C-22D2-1342-88A3-13C6FCB2F6D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle1!$A$1:$J$23</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="132">
   <si>
     <t>Required</t>
   </si>
@@ -641,9 +645,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -668,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B8E09D-A2BC-574F-A3DD-0559FFB38538}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -988,7 +1002,7 @@
     <col min="16" max="16" width="12.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1082,7 +1096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1126,7 +1140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -1161,7 +1175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1196,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1381,7 +1395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1425,7 +1439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -1507,7 +1521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1592,7 +1606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -1677,7 +1691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -1724,7 +1738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -1803,7 +1817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -1841,7 +1855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -1882,7 +1896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="93" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -1923,7 +1937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -1961,7 +1975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -2002,7 +2016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2043,7 +2057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -2086,10 +2100,683 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:P9 K10:O10 K11:P26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6CBB51-8016-470F-94B5-E54D4FCAFE08}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J23" xr:uid="{7F6CBB51-8016-470F-94B5-E54D4FCAFE08}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
+      <sortCondition ref="D1:D23"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
+    <sortCondition ref="D1:D26"/>
+  </sortState>
+  <conditionalFormatting sqref="E8:I8 E2:J7 E9:J23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>